--- a/ELECTROTEH/Электротехника.xlsx
+++ b/ELECTROTEH/Электротехника.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\UniverWorks\ELECTROTEH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\SibGuti_Work\ELECTROTEH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E120518-A98F-4030-8CB1-6E6D335740CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5CD67-F91F-4182-A591-0E2C0546A2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 лаба" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
   <si>
     <t>Вариант 9</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>Повышеная темпиратура</t>
+  </si>
+  <si>
+    <t>2 Вариант</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
   </si>
 </sst>
 </file>
@@ -1069,196 +1075,161 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1267,14 +1238,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1282,17 +1253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,14 +1274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4152,923 +4120,905 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-    </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>45</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>45</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>45</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="K4" s="72" t="s">
+      <c r="H4" s="2"/>
+      <c r="K4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="5" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>54.94</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>112.5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>562.5</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="K5" s="72" t="s">
+      <c r="H5" s="2"/>
+      <c r="K5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>50.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>50.5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>50.5</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="K6" s="72" t="s">
+      <c r="H6" s="2"/>
+      <c r="K6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="8">
         <f>E4/E5</f>
         <v>0.81907535493265382</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="8">
         <f>F4/F5</f>
         <v>0.4</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="8">
         <f>G4/G5</f>
         <v>0.08</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="5" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>61.65</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>126.2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>631.29999999999995</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="10" t="s">
+      <c r="H7" s="2"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="8">
         <f>E6/E7</f>
         <v>0.81914030819140315</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="8">
         <f>F6/F7</f>
         <v>0.40015847860538828</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="8">
         <f>G6/G7</f>
         <v>7.999366386820847E-2</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>45</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>44.89</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>44.44</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="K8" s="72" t="s">
+      <c r="H8" s="2"/>
+      <c r="K8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="8">
         <f>E8/E9</f>
         <v>0.82012028430836525</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="8">
         <f>F8/F9</f>
         <v>0.40008912655971479</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="8">
         <f>G8/G9</f>
         <v>7.9985601151907837E-2</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="5" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>54.87</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>112.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>555.6</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="10" t="s">
+      <c r="H9" s="2"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="8">
         <f>E10/E11</f>
         <v>0.81918699186991872</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="8">
         <f>F10/F11</f>
         <v>0.40007961783439494</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="8">
         <f>G10/G11</f>
         <v>7.9996752719597344E-2</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>50.38</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>50.25</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>49.27</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="5" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>61.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>125.6</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>615.9</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="K14" s="72" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="K14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <v>41.33</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="6">
         <v>20.190000000000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="6">
         <v>4.04</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="K15" s="72" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="K15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="52"/>
+      <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="5" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="5">
         <v>50.46</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="5">
         <v>50.48</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="5">
         <v>50.5</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="K16" s="72" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="K16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="15">
+      <c r="L16" s="52"/>
+      <c r="M16" s="10">
         <f>D15/D16</f>
         <v>0.81906460562822037</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="10">
         <f>E15/E16</f>
         <v>0.399960380348653</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="10">
         <f>F15/F16</f>
         <v>0.08</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="6">
         <v>36.83</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="6">
         <v>17.989999999999998</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="6">
         <v>3.6</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="K17" s="72" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="K17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="15">
+      <c r="L17" s="52"/>
+      <c r="M17" s="10">
         <f>D17/D18</f>
         <v>0.8189904380698243</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="10">
         <f>E17/E18</f>
         <v>0.39995553579368609</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="10">
         <f>F17/F18</f>
         <v>0.08</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="5" t="s">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="5">
         <v>44.97</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="5">
         <v>44.98</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="5">
         <v>45</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="72" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-    </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="6">
         <v>7.5469999999999997</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="6">
         <v>5.4050000000000002</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="6">
         <v>5.8819999999999997</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="6">
         <v>6.452</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="6">
         <v>7.1429999999999998</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="6">
         <v>7.5469999999999997</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="5">
         <v>4.5279999999999996</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="5">
         <v>3.2429999999999999</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="5">
         <v>3.5289999999999999</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="5">
         <v>3.871</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="5">
         <v>4.2859999999999996</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="5">
         <v>4.5279999999999996</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="10">
         <f t="shared" ref="L23:Q23" si="0">D22/D23</f>
         <v>1.6667402826855124</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="10">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="10">
         <f t="shared" si="0"/>
         <v>1.6667611221309153</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>1.6667527770601911</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="10">
         <f t="shared" si="0"/>
         <v>1.6665888940737286</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="10">
         <f t="shared" si="0"/>
         <v>1.6667402826855124</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="6">
         <v>3.6360000000000001</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="6">
         <v>4.0819999999999999</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="6">
         <v>4.6509999999999998</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="6">
         <v>5.4050000000000002</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="6">
         <v>6.452</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="6">
         <v>7.1429999999999998</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="10">
         <f t="shared" ref="L24:Q24" si="1">D24/D25</f>
         <v>0.8331805682859762</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="10">
         <f t="shared" si="1"/>
         <v>0.83340138832176403</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="10">
         <f t="shared" si="1"/>
         <v>0.83336319655975621</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="10">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="10">
         <f t="shared" si="1"/>
         <v>0.83337638853009555</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="10">
         <f t="shared" si="1"/>
         <v>0.83339166958347921</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="5">
         <v>4.3639999999999999</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="5">
         <v>4.8979999999999997</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="5">
         <v>5.5810000000000004</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="5">
         <v>6.4859999999999998</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="5">
         <v>7.742</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="5">
         <v>8.5709999999999997</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="10">
         <f t="shared" ref="L25:Q25" si="2">D26/D27</f>
         <v>0.8331805682859762</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="10">
         <f t="shared" si="2"/>
         <v>0.83340138832176403</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="10">
         <f t="shared" si="2"/>
         <v>0.83336319655975621</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="10">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="10">
         <f t="shared" si="2"/>
         <v>0.83337638853009555</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="10">
         <f t="shared" si="2"/>
         <v>0.83339166958347921</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="72" t="s">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="6">
         <v>3.6360000000000001</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="6">
         <v>4.0819999999999999</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="6">
         <v>4.6509999999999998</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="6">
         <v>5.4050000000000002</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>6.452</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="6">
         <v>7.1429999999999998</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="5" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="5">
         <v>4.3639999999999999</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="5">
         <v>4.8979999999999997</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="5">
         <v>5.5810000000000004</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="5">
         <v>6.4859999999999998</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="5">
         <v>7.742</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="5">
         <v>8.5709999999999997</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A13:F13"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:C3"/>
@@ -5078,6 +5028,24 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -5097,194 +5065,197 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="59">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="76" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="78" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E19" s="78" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -5292,18 +5263,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5317,172 +5281,165 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="93" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="97" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="97" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="98"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="75" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>0</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
@@ -5493,6 +5450,13 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5506,220 +5470,220 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="5">
         <v>20</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="5">
         <v>35</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="5">
         <v>40</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="5">
         <v>45</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="40">
         <v>100</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="40">
         <v>80</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="40">
         <v>60</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="40">
         <v>40</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="40">
         <v>20</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="40">
         <v>10</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5738,738 +5702,763 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="I2" s="17" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="I2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>240</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>100</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>30.41</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>7.0179999999999998</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>23.29</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="13">
         <v>1E-3</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="14">
         <f>J6*F8</f>
         <v>0.12869999999999998</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="15">
         <f>E8*J6</f>
         <v>0.11140000000000001</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>13.16</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>118.4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>105.3</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="17">
         <f>J6*F9</f>
         <v>0.14910000000000001</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="18">
         <f>E9*J6</f>
         <v>0.1053</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>17.25</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>111.4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>128.69999999999999</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="20">
         <f>AVERAGE(B17,B19)</f>
         <v>7.9990499999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>43.86</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>105.3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>149.1</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="20">
         <f>AVERAGE(D19,B18)</f>
         <v>15</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="15">
         <f>M6</f>
         <v>0.12869999999999998</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="15">
         <f>O6*-1</f>
         <v>-0.11140000000000001</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>57.02</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>13.16</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>43.86</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="20">
         <f>K3/L3*-1</f>
         <v>-3.3333333333333335</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="18">
         <f>M7</f>
         <v>0.14910000000000001</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="18">
         <f>O7*-1</f>
         <v>-0.1053</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I11" s="17" t="s">
+    <row r="11" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="20">
         <f>J9/L3</f>
         <v>0.5</v>
       </c>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="M12" s="31">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="M12" s="26">
         <f>O10</f>
         <v>0.14910000000000001</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="27">
         <f>O7*-1</f>
         <v>-0.1053</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="28">
         <f>M6</f>
         <v>0.12869999999999998</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="28">
         <f>O6*-1</f>
         <v>-0.11140000000000001</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="I13" s="76" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="I13" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="M13" s="35">
+      <c r="J13" s="57"/>
+      <c r="M13" s="30">
         <f>O10-Q12</f>
         <v>2.0400000000000029E-2</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="31">
         <f>R12+(-1*N12)</f>
         <v>-6.1000000000000082E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="I14" s="37" t="s">
+    <row r="14" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="I14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="32">
         <f>-1*K3/L3</f>
         <v>-3.3333333333333335</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="31">
         <f>M13/P13</f>
         <v>-3.3442622950819674</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="I15" s="18" t="s">
+    <row r="15" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="I15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="13">
         <f>J9/L3</f>
         <v>0.5</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="36">
         <f>O9+(P9*O14)</f>
         <v>0.50125081967213125</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72" t="s">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="M16" s="42" t="s">
+      <c r="G16" s="52"/>
+      <c r="M16" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="43" t="s">
+      <c r="N16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="39">
         <f>O10+(P10*O14)</f>
         <v>0.50125081967213125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="57">
         <f>D6*J6*J3+F6*J6*L3</f>
         <v>7.9970999999999997</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57">
         <f>E6*J6*K3-F6*J6*L3</f>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76">
+      <c r="E17" s="57"/>
+      <c r="F17" s="57">
         <f>D6-E6-F6</f>
         <v>0.10200000000000031</v>
       </c>
-      <c r="G17" s="76"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="G17" s="57"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="57">
         <f>E7*J6*K3+F7*J6*L3</f>
         <v>14.999000000000001</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57">
         <f>D7*J6*J3-F7*J6*L3</f>
         <v>-6.0000000000037801E-4</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76">
+      <c r="E18" s="57"/>
+      <c r="F18" s="57">
         <f>E7-D7-F7</f>
         <v>-5.9999999999988063E-2</v>
       </c>
-      <c r="G18" s="76"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="57">
         <f>D8*J6*J3+F8*J6*L3</f>
         <v>8.0009999999999994</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57">
         <f>E8*J6*K3+F8*J6*L3</f>
         <v>15.000999999999999</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76">
+      <c r="E19" s="57"/>
+      <c r="F19" s="57">
         <f>E8+D8-F8</f>
         <v>-4.9999999999982947E-2</v>
       </c>
-      <c r="G19" s="76"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72" t="s">
+      <c r="G19" s="57"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>4</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="72">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
         <v>2</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="77" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72" t="s">
+      <c r="E34" s="52"/>
+      <c r="F34" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="57">
         <f>(J9-D36*K3)/J3</f>
         <v>1.315789473684211E-2</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57">
         <f>J9/(K3+((J3*L3)/(J3+L3)))</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76">
+      <c r="E36" s="57"/>
+      <c r="F36" s="57">
         <f>B37-B36</f>
         <v>4.3859649122807008E-2</v>
       </c>
-      <c r="G36" s="76">
+      <c r="G36" s="57">
         <f>D37-D36</f>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="H36" s="76">
+      <c r="H36" s="57">
         <f>F36+G36</f>
         <v>-6.1403508771929828E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="57">
         <f>J9/(J3+((K3*L3)/(K3+L3)))</f>
         <v>5.701754385964912E-2</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76">
+      <c r="C37" s="57"/>
+      <c r="D37" s="57">
         <f>(J9-B37*J3)/K3</f>
         <v>1.3157894736842106E-2</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="D28:F29"/>
@@ -6482,38 +6471,13 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6533,291 +6497,291 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="I2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>80</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>40</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>20</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="13">
         <v>10</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="41">
         <f>(B6-G6)/(B5-G5)</f>
         <v>-4.0579272891838851</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="20">
         <f>159.5/J6</f>
         <v>0.1595</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="20">
         <f>172/J6</f>
         <v>0.17199999999999999</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="20">
         <f>196.9/J6</f>
         <v>0.19690000000000002</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="20">
         <f>253/J6</f>
         <v>0.253</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <f>435.5/J6</f>
         <v>0.4355</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <f>761.5/J6</f>
         <v>0.76149999999999995</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="13">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <f>178.2/J6</f>
         <v>0.1782</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <f>224/J6</f>
         <v>0.224</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="20">
         <f>296.1/J6</f>
         <v>0.29610000000000003</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="20">
         <f>433.9/J6</f>
         <v>0.43389999999999995</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <f>834.1/J6</f>
         <v>0.83410000000000006</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="20">
         <f>1504/J6</f>
         <v>1.504</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="13">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <v>40.549999999999997</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>41.21</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="20">
         <v>40.869999999999997</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="20">
         <v>39.92</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>38.369999999999997</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="20">
         <v>35.17</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="20">
         <v>1.504</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="20">
         <v>1.405</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="20">
         <v>1.165</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="20">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>0.497</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="20">
         <v>0.314</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="20">
         <f>J4/J3*B7</f>
         <v>54.143999999999998</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="20">
         <f>J4/J3*C7</f>
         <v>50.58</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="20">
         <f>J4/J3*D7</f>
         <v>41.94</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="20">
         <f>J4/J3*E7</f>
         <v>33.875999999999998</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="20">
         <f>J4/J3*F7</f>
         <v>17.891999999999999</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="20">
         <f>J4/J3*G7</f>
         <v>11.304</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="20">
         <f>COS(B8*PI()/180)</f>
         <v>0.58575011657054432</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:G9" si="0">COS(C8*PI()/180)</f>
         <v>0.63500020942876068</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0.74384512980702511</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0.83024583999663693</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0.9516373096830546</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0.98060097653543121</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="45">
         <f>(B6*B5)/($J5*B4*B9)</f>
         <v>0.90992701995985026</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="45">
         <f t="shared" ref="C10:E10" si="1">(C6*C5)/($J5*C4*C9)</f>
         <v>0.99432736468436822</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="45">
         <f t="shared" si="1"/>
         <v>0.97206628269557838</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="45">
         <f t="shared" si="1"/>
         <v>0.97013914270024282</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="45">
         <f>(F6*F5)/($J5*F4*F9)</f>
         <v>0.9085134784916733</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="45">
         <f>(G6*G5)/($J5*G4*G9)</f>
         <v>0.83337227830548122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="43">
         <f>85/42.2</f>
         <v>2.014218009478673</v>
       </c>
@@ -6825,17 +6789,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="51">
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="25">
         <f>(B6-G6)/(B5-G5)</f>
         <v>-4.0579272891838851</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="25">
         <v>2.33</v>
       </c>
       <c r="D16" t="s">
@@ -6845,11 +6809,11 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="25">
         <f>(J4/J3)*B16</f>
         <v>83.88</v>
       </c>
@@ -6860,21 +6824,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="25">
         <f>COS(RADIANS(B17))</f>
         <v>0.10661115427525999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
         <f>129.1/J6</f>
         <v>0.12909999999999999</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="51">
         <f>A19*85*0.11</f>
         <v>1.207085</v>
       </c>
@@ -6897,340 +6861,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+    <row r="1" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="63"/>
-      <c r="M2" s="80" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="47"/>
+      <c r="M2" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="63"/>
-      <c r="M3" s="63" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="47">
         <v>464.62830000000002</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="M4" s="63" t="s">
+      <c r="K4" s="47"/>
+      <c r="M4" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="47">
         <v>11000</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="63"/>
-      <c r="M5" s="63" t="s">
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="47">
         <f>3*F6*G6</f>
         <v>269.12367</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="49">
         <v>190</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="49">
         <f>532.9/N10</f>
         <v>0.53289999999999993</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="49">
         <f>(360/N4)*(N3)</f>
         <v>15.206017090909093</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="49">
         <f>COS(D6*PI()/180)</f>
         <v>0.96498895455519629</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="49">
         <v>84.71</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="49">
         <v>1.0589999999999999</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="49">
         <f>N7</f>
         <v>293.1182899130045</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="49">
         <f>N6</f>
         <v>303.75299999999999</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="45">
         <f>N5/H6</f>
         <v>0.91814014771945507</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="M6" s="63" t="s">
+      <c r="K6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="47">
         <f>3*C6*B6</f>
         <v>303.75299999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="49">
         <v>190</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="49">
         <v>2.9729999999999999</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="49">
         <f>(360/N14)*(N13)/N10</f>
         <v>6.5074909090909099E-5</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="49">
         <f>COS(D7*PI()/180)</f>
         <v>0.99999999999935496</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="49">
         <v>440.7</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="49">
         <v>5.9459999999999997</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="49">
         <f>N17</f>
         <v>1694.6099999989071</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="49">
         <f>N16</f>
         <v>1694.6100000000001</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="49">
         <f>N15/H7</f>
         <v>4.6389473684240441</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="M7" s="63" t="s">
+      <c r="K7" s="47"/>
+      <c r="M7" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="47">
         <f>N6*E6</f>
         <v>293.1182899130045</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="O8" s="63"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="s">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="M9" s="63" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="80" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+    </row>
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="80" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="M10" s="63" t="s">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="M10" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="47">
         <v>1000</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="M12" s="79" t="s">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="M12" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="M13" t="s">
         <v>201</v>
       </c>
@@ -7241,161 +7205,162 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="M14" s="63" t="s">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="M14" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="47">
         <v>11000</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="M15" s="63" t="s">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="M15" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="47">
         <f>3*F7*G7</f>
         <v>7861.2065999999995</v>
       </c>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="M16" s="63" t="s">
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="M16" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="63">
+      <c r="N16" s="47">
         <f>3*C7*B7</f>
         <v>1694.6100000000001</v>
       </c>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="M17" s="63" t="s">
+      <c r="O16" s="47"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="M17" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="63">
+      <c r="N17" s="47">
         <f>E7*N16</f>
         <v>1694.6099999989071</v>
       </c>
-      <c r="O17" s="63"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-    </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-    </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-    </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-    </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="C10:F10"/>
@@ -7412,7 +7377,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7426,1126 +7390,1138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="57"/>
-    </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="57"/>
-    </row>
-    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="67">
         <v>5</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="67">
         <v>10</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="67">
         <v>15</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="67">
         <v>20</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="67">
         <v>25</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="67">
         <v>30</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="67">
         <v>35</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="67">
         <v>40</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="66">
         <v>45</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="66">
         <v>50</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="66">
         <v>55</v>
       </c>
-      <c r="N4" s="83">
+      <c r="N4" s="65">
         <v>60</v>
       </c>
-      <c r="O4" s="83">
+      <c r="O4" s="65">
         <v>65</v>
       </c>
-      <c r="P4" s="83">
+      <c r="P4" s="65">
         <v>70</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="65">
         <v>75</v>
       </c>
-      <c r="R4" s="83">
+      <c r="R4" s="65">
         <v>80</v>
       </c>
-      <c r="S4" s="83">
+      <c r="S4" s="65">
         <v>85</v>
       </c>
-      <c r="T4" s="83">
+      <c r="T4" s="65">
         <v>90</v>
       </c>
-      <c r="U4" s="83">
+      <c r="U4" s="65">
         <v>95</v>
       </c>
-      <c r="V4" s="83">
+      <c r="V4" s="65">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-    </row>
-    <row r="6" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="13">
         <v>0.05</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="13">
         <v>0.1</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="13">
         <v>0.15</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="13">
         <v>0.2</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="13">
         <v>0.25</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="13">
         <v>0.3</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="13">
         <v>0.35</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="13">
         <v>0.4</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="13">
         <v>0.45</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="13">
         <v>0.5</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N6" s="65">
+      <c r="N6" s="13">
         <v>0.6</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="13">
         <v>0.65</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="13">
         <v>0.7</v>
       </c>
-      <c r="Q6" s="65">
+      <c r="Q6" s="13">
         <v>0.75</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="13">
         <v>0.8</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="13">
         <v>0.85</v>
       </c>
-      <c r="T6" s="65">
+      <c r="T6" s="13">
         <v>0.9</v>
       </c>
-      <c r="U6" s="65">
+      <c r="U6" s="13">
         <v>0.95</v>
       </c>
-      <c r="V6" s="65">
+      <c r="V6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="13">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="13">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="13">
         <v>1.0329999999999999</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="13">
         <v>2.1379999999999999</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="13">
         <v>3.7440000000000002</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="13">
         <v>5.7510000000000003</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="13">
         <v>8.0449999999999999</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="13">
         <v>10.54</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="13">
         <v>13.18</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="13">
         <v>15.93</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="13">
         <v>18.75</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="13">
         <v>21.64</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="13">
         <v>24.58</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="13">
         <v>27.56</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="13">
         <v>30.57</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="13">
         <v>33.61</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="13">
         <v>36.67</v>
       </c>
-      <c r="U7" s="58">
+      <c r="U7" s="13">
         <v>39.76</v>
       </c>
-      <c r="V7" s="58">
+      <c r="V7" s="13">
         <v>42.86</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-    </row>
-    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="67">
         <v>5</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="67">
         <v>10</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="67">
         <v>15</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="67">
         <v>20</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="67">
         <v>25</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="67">
         <v>30</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="67">
         <v>35</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="67">
         <v>40</v>
       </c>
-      <c r="K10" s="86">
+      <c r="K10" s="66">
         <v>45</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="66">
         <v>50</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="66">
         <v>55</v>
       </c>
-      <c r="N10" s="83">
+      <c r="N10" s="65">
         <v>60</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="65">
         <v>65</v>
       </c>
-      <c r="P10" s="83">
+      <c r="P10" s="65">
         <v>70</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="65">
         <v>75</v>
       </c>
-      <c r="R10" s="83">
+      <c r="R10" s="65">
         <v>80</v>
       </c>
-      <c r="S10" s="83">
+      <c r="S10" s="65">
         <v>85</v>
       </c>
-      <c r="T10" s="83">
+      <c r="T10" s="65">
         <v>90</v>
       </c>
-      <c r="U10" s="83">
+      <c r="U10" s="65">
         <v>95</v>
       </c>
-      <c r="V10" s="83">
+      <c r="V10" s="65">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="13">
         <v>0.9</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="13">
         <v>1.8</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="13">
         <v>2.7</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="13">
         <v>3.6</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="13">
         <v>4.5</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="13">
         <v>5.4</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="13">
         <v>6.3</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="13">
         <v>7.2</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="13">
         <v>8.1</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="13">
         <v>9</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="13">
         <v>9.9</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="13">
         <v>10.8</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="13">
         <v>11.7</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="13">
         <v>12.6</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="Q12" s="13">
         <v>13.5</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="13">
         <v>14.4</v>
       </c>
-      <c r="S12" s="65">
+      <c r="S12" s="13">
         <v>15.3</v>
       </c>
-      <c r="T12" s="65">
+      <c r="T12" s="13">
         <v>16.2</v>
       </c>
-      <c r="U12" s="65">
+      <c r="U12" s="13">
         <v>17.100000000000001</v>
       </c>
-      <c r="V12" s="65">
+      <c r="V12" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="13">
         <v>0.02</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="13">
         <v>0.02</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="13">
         <v>0.02</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="13">
         <v>0.02</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="13">
         <v>0.02</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="13">
         <v>0.02</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="13">
         <v>0.02</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="13">
         <v>0.02</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="13">
         <v>0.02</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="13">
         <v>0.02</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="13">
         <v>0.02</v>
       </c>
-      <c r="N13" s="65">
+      <c r="N13" s="13">
         <v>0.02</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="13">
         <v>0.02</v>
       </c>
-      <c r="P13" s="65">
+      <c r="P13" s="13">
         <v>0.02</v>
       </c>
-      <c r="Q13" s="65">
+      <c r="Q13" s="13">
         <v>0.02</v>
       </c>
-      <c r="R13" s="65">
+      <c r="R13" s="13">
         <v>0.02</v>
       </c>
-      <c r="S13" s="58">
+      <c r="S13" s="13">
         <v>9.3919999999999995</v>
       </c>
-      <c r="T13" s="58">
+      <c r="T13" s="13">
         <v>66.03</v>
       </c>
-      <c r="U13" s="58">
+      <c r="U13" s="13">
         <v>124.9</v>
       </c>
-      <c r="V13" s="58">
+      <c r="V13" s="13">
         <v>184.2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="67">
         <v>5</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="67">
         <v>10</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="67">
         <v>15</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="67">
         <v>20</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="67">
         <v>25</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="67">
         <v>30</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="67">
         <v>35</v>
       </c>
-      <c r="J17" s="84">
+      <c r="J17" s="67">
         <v>40</v>
       </c>
-      <c r="K17" s="86">
+      <c r="K17" s="66">
         <v>45</v>
       </c>
-      <c r="L17" s="86">
+      <c r="L17" s="66">
         <v>50</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="66">
         <v>55</v>
       </c>
-      <c r="N17" s="83">
+      <c r="N17" s="65">
         <v>60</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="65">
         <v>65</v>
       </c>
-      <c r="P17" s="83">
+      <c r="P17" s="65">
         <v>70</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="65">
         <v>75</v>
       </c>
-      <c r="R17" s="83">
+      <c r="R17" s="65">
         <v>80</v>
       </c>
-      <c r="S17" s="83">
+      <c r="S17" s="65">
         <v>85</v>
       </c>
-      <c r="T17" s="83">
+      <c r="T17" s="65">
         <v>90</v>
       </c>
-      <c r="U17" s="83">
+      <c r="U17" s="65">
         <v>95</v>
       </c>
-      <c r="V17" s="83">
+      <c r="V17" s="65">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-    </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+    </row>
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="13">
         <v>0.05</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="13">
         <v>0.1</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="13">
         <v>0.15</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="13">
         <v>0.2</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="13">
         <v>0.25</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="13">
         <v>0.3</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="13">
         <v>0.35</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="13">
         <v>0.4</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="13">
         <v>0.45</v>
       </c>
-      <c r="L19" s="65">
+      <c r="L19" s="13">
         <v>0.5</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N19" s="65">
+      <c r="N19" s="13">
         <v>0.6</v>
       </c>
-      <c r="O19" s="65">
+      <c r="O19" s="13">
         <v>0.65</v>
       </c>
-      <c r="P19" s="65">
+      <c r="P19" s="13">
         <v>0.7</v>
       </c>
-      <c r="Q19" s="65">
+      <c r="Q19" s="13">
         <v>0.75</v>
       </c>
-      <c r="R19" s="65">
+      <c r="R19" s="13">
         <v>0.8</v>
       </c>
-      <c r="S19" s="65">
+      <c r="S19" s="13">
         <v>0.85</v>
       </c>
-      <c r="T19" s="65">
+      <c r="T19" s="13">
         <v>0.9</v>
       </c>
-      <c r="U19" s="65">
+      <c r="U19" s="13">
         <v>0.95</v>
       </c>
-      <c r="V19" s="65">
+      <c r="V19" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="13">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="13">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="13">
         <v>1.0329999999999999</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="13">
         <v>2.1379999999999999</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="13">
         <v>3.7440000000000002</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="13">
         <v>5.7510000000000003</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="13">
         <v>8.0449999999999999</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="13">
         <v>10.54</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="13">
         <v>13.18</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="13">
         <v>15.93</v>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="13">
         <v>18.75</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="13">
         <v>21.64</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P20" s="13">
         <v>24.58</v>
       </c>
-      <c r="Q20" s="65">
+      <c r="Q20" s="13">
         <v>27.56</v>
       </c>
-      <c r="R20" s="65">
+      <c r="R20" s="13">
         <v>30.57</v>
       </c>
-      <c r="S20" s="65">
+      <c r="S20" s="13">
         <v>33.61</v>
       </c>
-      <c r="T20" s="65">
+      <c r="T20" s="13">
         <v>36.67</v>
       </c>
-      <c r="U20" s="65">
+      <c r="U20" s="13">
         <v>39.76</v>
       </c>
-      <c r="V20" s="65">
+      <c r="V20" s="13">
         <v>42.86</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="67">
         <v>5</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="67">
         <v>10</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="67">
         <v>15</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="67">
         <v>20</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="67">
         <v>25</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="67">
         <v>30</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="67">
         <v>35</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="67">
         <v>40</v>
       </c>
-      <c r="K23" s="86">
+      <c r="K23" s="66">
         <v>45</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="66">
         <v>50</v>
       </c>
-      <c r="M23" s="86">
+      <c r="M23" s="66">
         <v>55</v>
       </c>
-      <c r="N23" s="83">
+      <c r="N23" s="65">
         <v>60</v>
       </c>
-      <c r="O23" s="83">
+      <c r="O23" s="65">
         <v>65</v>
       </c>
-      <c r="P23" s="83">
+      <c r="P23" s="65">
         <v>70</v>
       </c>
-      <c r="Q23" s="83">
+      <c r="Q23" s="65">
         <v>75</v>
       </c>
-      <c r="R23" s="83">
+      <c r="R23" s="65">
         <v>80</v>
       </c>
-      <c r="S23" s="83">
+      <c r="S23" s="65">
         <v>85</v>
       </c>
-      <c r="T23" s="83">
+      <c r="T23" s="65">
         <v>90</v>
       </c>
-      <c r="U23" s="83">
+      <c r="U23" s="65">
         <v>95</v>
       </c>
-      <c r="V23" s="83">
+      <c r="V23" s="65">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="13">
         <v>0.9</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="13">
         <v>1.8</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="13">
         <v>2.7</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="13">
         <v>3.6</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="13">
         <v>4.5</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="13">
         <v>5.4</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="13">
         <v>6.3</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="13">
         <v>7.2</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="13">
         <v>8.1</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="13">
         <v>9</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="13">
         <v>9.9</v>
       </c>
-      <c r="N25" s="65">
+      <c r="N25" s="13">
         <v>10.8</v>
       </c>
-      <c r="O25" s="65">
+      <c r="O25" s="13">
         <v>11.7</v>
       </c>
-      <c r="P25" s="65">
+      <c r="P25" s="13">
         <v>12.6</v>
       </c>
-      <c r="Q25" s="65">
+      <c r="Q25" s="13">
         <v>13.5</v>
       </c>
-      <c r="R25" s="65">
+      <c r="R25" s="13">
         <v>14.4</v>
       </c>
-      <c r="S25" s="65">
+      <c r="S25" s="13">
         <v>15.3</v>
       </c>
-      <c r="T25" s="65">
+      <c r="T25" s="13">
         <v>16.2</v>
       </c>
-      <c r="U25" s="65">
+      <c r="U25" s="13">
         <v>17.100000000000001</v>
       </c>
-      <c r="V25" s="65">
+      <c r="V25" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="13">
         <v>0.02</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="13">
         <v>0.02</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="13">
         <v>0.02</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="13">
         <v>0.02</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="13">
         <v>0.02</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="13">
         <v>0.02</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="13">
         <v>0.02</v>
       </c>
-      <c r="J26" s="65">
+      <c r="J26" s="13">
         <v>0.02</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="13">
         <v>0.02</v>
       </c>
-      <c r="L26" s="65">
+      <c r="L26" s="13">
         <v>0.02</v>
       </c>
-      <c r="M26" s="65">
+      <c r="M26" s="13">
         <v>0.02</v>
       </c>
-      <c r="N26" s="65">
+      <c r="N26" s="13">
         <v>0.02</v>
       </c>
-      <c r="O26" s="65">
+      <c r="O26" s="13">
         <v>0.02</v>
       </c>
-      <c r="P26" s="65">
+      <c r="P26" s="13">
         <v>0.02</v>
       </c>
-      <c r="Q26" s="65">
+      <c r="Q26" s="13">
         <v>0.02</v>
       </c>
-      <c r="R26" s="65">
+      <c r="R26" s="13">
         <v>0.02</v>
       </c>
-      <c r="S26" s="65">
+      <c r="S26" s="13">
         <v>9.3919999999999995</v>
       </c>
-      <c r="T26" s="65">
+      <c r="T26" s="13">
         <v>66.03</v>
       </c>
-      <c r="U26" s="65">
+      <c r="U26" s="13">
         <v>124.9</v>
       </c>
-      <c r="V26" s="65">
+      <c r="V26" s="13">
         <v>184.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A15:V15"/>
     <mergeCell ref="A16:V16"/>
@@ -8562,52 +8538,38 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A8:V8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8621,245 +8583,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="5">
         <v>80</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="5">
         <v>60</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="5">
         <v>40</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="5">
         <v>20</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8880,208 +8842,208 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="5">
         <v>50</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="5">
         <v>60</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="5">
         <v>70</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="5">
         <v>80</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="5">
         <v>90</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="5">
         <v>100</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="5">
         <v>60</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="5">
         <v>40</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="5">
         <v>20</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9100,70 +9062,70 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="H2" s="93" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="H3" s="93" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="H3" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="40" t="s">
         <v>147</v>
       </c>
       <c r="H4" t="s">
@@ -9172,238 +9134,238 @@
       <c r="I4" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="40" t="s">
         <v>147</v>
       </c>
       <c r="K4" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>5</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40">
         <v>5</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="H5" s="56">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="40">
         <v>5</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40">
         <v>5</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>15</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40">
         <v>15</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="H6" s="56">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="H6" s="40">
         <v>15</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40">
         <v>15</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>25</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
         <v>25</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="H7" s="56">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="H7" s="40">
         <v>25</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40">
         <v>25</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>35</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40">
         <v>35</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="H8" s="56">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="H8" s="40">
         <v>35</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40">
         <v>35</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>45</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40">
         <v>45</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="H9" s="56">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="40">
         <v>45</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40">
         <v>45</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>55</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40">
         <v>55</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="H10" s="56">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="40">
         <v>55</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40">
         <v>55</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>65</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40">
         <v>65</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="H11" s="56">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="H11" s="40">
         <v>65</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40">
         <v>65</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>75</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40">
         <v>75</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="H12" s="56">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="H12" s="40">
         <v>75</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56">
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40">
         <v>75</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>85</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40">
         <v>85</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="H13" s="56">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="H13" s="40">
         <v>85</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56">
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40">
         <v>85</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>95</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40">
         <v>95</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="H14" s="56">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="H14" s="40">
         <v>95</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40">
         <v>95</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9426,96 +9388,95 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>39</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>40</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>41</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>39</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>40</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>41</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
